--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3508.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3508.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.434863456850918</v>
+        <v>2.11353325843811</v>
       </c>
       <c r="B1">
-        <v>2.856358336786278</v>
+        <v>3.076792240142822</v>
       </c>
       <c r="C1">
-        <v>3.748509408612338</v>
+        <v>2.401697158813477</v>
       </c>
       <c r="D1">
-        <v>3.626042599226585</v>
+        <v>2.298105716705322</v>
       </c>
       <c r="E1">
-        <v>1.198753501202548</v>
+        <v>2.230279445648193</v>
       </c>
     </row>
   </sheetData>
